--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.2_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3026457252067112</v>
+        <v>0.3232339605008289</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3026457252067112, 'ngram_match_score': 0.13820472559698385, 'weighted_ngram_match_score': 0.1502062295285035, 'syntax_match_score': 0.5692307692307692, 'dataflow_match_score': 0.35294117647058826}</t>
+          <t>{'codebleu': 0.32323396050082887, 'ngram_match_score': 0.13820472559698385, 'weighted_ngram_match_score': 0.1502062295285035, 'syntax_match_score': 0.5692307692307692, 'dataflow_match_score': 0.43529411764705883}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
